--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -448,7 +448,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>562412.618334614</v>
+        <v>557841.74555641</v>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>2536404</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>388982.876946229</v>
+        <v>390437.673605378</v>
       </c>
       <c r="B4" t="n">
         <v>2070</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>546280.228507763</v>
+        <v>539940.861273111</v>
       </c>
       <c r="B5" t="n">
         <v>2070</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>5109197</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>362379.452068664</v>
+        <v>363283.554596555</v>
       </c>
       <c r="B6" t="n">
         <v>2150</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>558823.547367844</v>
+        <v>549051.921342404</v>
       </c>
       <c r="B7" t="n">
         <v>2150</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>6965058</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">PCDD_2070_65%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2070_78%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2150_65%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2150_78%AG CF</t>
+    <t xml:space="preserve">PCDD_2070_78%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2070_65%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDD_2150_78%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2150_65%AG CF</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>557841.74555641</v>
+        <v>562412.618334614</v>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
@@ -477,13 +477,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>390437.673605378</v>
+        <v>383890.368048413</v>
       </c>
       <c r="B4" t="n">
         <v>2070</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>539940.861273111</v>
+        <v>719926.072963432</v>
       </c>
       <c r="B5" t="n">
         <v>2070</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>363283.554596555</v>
+        <v>361630.483074103</v>
       </c>
       <c r="B6" t="n">
         <v>2150</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>549051.921342404</v>
+        <v>857611.220844781</v>
       </c>
       <c r="B7" t="n">
         <v>2150</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">MI...AG</t>
   </si>
@@ -32,7 +32,13 @@
     <t xml:space="preserve">Average_PerCapita_._Change</t>
   </si>
   <si>
+    <t xml:space="preserve">Average_GPCD_Change</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_Changes</t>
   </si>
   <si>
     <t xml:space="preserve">Population</t>
@@ -416,6 +422,12 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -437,18 +449,24 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2536404</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>562412.618334614</v>
+        <v>557841.74555641</v>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
@@ -466,13 +484,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>9142</v>
+      </c>
+      <c r="J3" t="n">
         <v>2536404</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -495,18 +519,24 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>5109197</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="K4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>719926.072963432</v>
+        <v>711807.63214346</v>
       </c>
       <c r="B5" t="n">
         <v>2070</v>
@@ -524,13 +554,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>16237</v>
+      </c>
+      <c r="J5" t="n">
         <v>5109197</v>
       </c>
-      <c r="I5" t="s">
-        <v>12</v>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -553,18 +589,24 @@
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>6965058</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
+      <c r="K6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>857611.220844781</v>
+        <v>846445.840554488</v>
       </c>
       <c r="B7" t="n">
         <v>2150</v>
@@ -582,13 +624,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>22331</v>
+      </c>
+      <c r="J7" t="n">
         <v>6965058</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Average_PerCapita_._Change</t>
   </si>
   <si>
-    <t xml:space="preserve">Average_GPCD_Change</t>
+    <t xml:space="preserve">Average_GPCD</t>
   </si>
   <si>
     <t xml:space="preserve">ET_._Change</t>
@@ -449,7 +449,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -519,7 +519,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -12,7 +12,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Potable_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_GPCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
   <si>
     <t xml:space="preserve">MI...AG</t>
   </si>
@@ -21,48 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">AG_ConversionFactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potable_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_GPCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_Changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DemandScenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2070_78%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2070_65%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2150_78%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2150_65%AG CF</t>
   </si>
 </sst>
 </file>
@@ -425,218 +404,197 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2536404</v>
+      </c>
+      <c r="H2" t="n">
         <v>492128.97498806</v>
       </c>
-      <c r="B2" t="n">
+      <c r="I2" t="n">
         <v>2015</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G2" t="n">
-        <v>86</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>2536404</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9142</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2536404</v>
+      </c>
+      <c r="H3" t="n">
         <v>557841.74555641</v>
       </c>
-      <c r="B3" t="n">
+      <c r="I3" t="n">
         <v>2015</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>117</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9142</v>
-      </c>
       <c r="J3" t="n">
-        <v>2536404</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5109197</v>
+      </c>
+      <c r="H4" t="n">
         <v>383890.368048413</v>
       </c>
-      <c r="B4" t="n">
+      <c r="I4" t="n">
         <v>2070</v>
       </c>
-      <c r="C4" t="n">
+      <c r="J4" t="n">
         <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5109197</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16237</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5109197</v>
+      </c>
+      <c r="H5" t="n">
         <v>711807.63214346</v>
       </c>
-      <c r="B5" t="n">
+      <c r="I5" t="n">
         <v>2070</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>117</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16237</v>
-      </c>
       <c r="J5" t="n">
-        <v>5109197</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>361630.483074103</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
+        <v>44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6965058</v>
+      </c>
+      <c r="H6" t="n">
+        <v>366437.739825256</v>
+      </c>
+      <c r="I6" t="n">
         <v>2150</v>
       </c>
-      <c r="C6" t="n">
+      <c r="J6" t="n">
         <v>63</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6965058</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>846445.840554488</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3051.39605677528</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6965058</v>
+      </c>
+      <c r="H7" t="n">
+        <v>883850.880932382</v>
+      </c>
+      <c r="I7" t="n">
         <v>2150</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>117</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22331</v>
-      </c>
       <c r="J7" t="n">
-        <v>6965058</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Potable_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_PerCapita_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average_GPCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_._Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_Changes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Potable.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg.Reduced.PerCapita...Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg.Reduced.PerCapita.GPCD.Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET.Change.by..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET.Change.by.Acre.Feet.Year</t>
   </si>
   <si>
     <t xml:space="preserve">Population</t>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t xml:space="preserve">AG_ConversionFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemandScenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
   </si>
 </sst>
 </file>
@@ -404,6 +425,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -436,6 +460,9 @@
       <c r="J2" t="n">
         <v>100</v>
       </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -467,6 +494,9 @@
       </c>
       <c r="J3" t="n">
         <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -500,6 +530,9 @@
       <c r="J4" t="n">
         <v>63</v>
       </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -531,6 +564,9 @@
       </c>
       <c r="J5" t="n">
         <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +592,16 @@
         <v>6965058</v>
       </c>
       <c r="H6" t="n">
-        <v>366437.739825256</v>
+        <v>361630.483074103</v>
       </c>
       <c r="I6" t="n">
         <v>2150</v>
       </c>
       <c r="J6" t="n">
         <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -588,13 +627,16 @@
         <v>6965058</v>
       </c>
       <c r="H7" t="n">
-        <v>883850.880932382</v>
+        <v>846445.840554488</v>
       </c>
       <c r="I7" t="n">
         <v>2150</v>
       </c>
       <c r="J7" t="n">
         <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -14,55 +14,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Potable.PerCapita...Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary.PerCapita...Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg.Reduced.PerCapita...Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg.Reduced.PerCapita.GPCD.Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET.Change.by..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET.Change.by.Acre.Feet.Year</t>
+    <t xml:space="preserve">MI...AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG_ConversionFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potable_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_PerCapita_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_GPCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_._Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_Changes</t>
   </si>
   <si>
     <t xml:space="preserve">Population</t>
   </si>
   <si>
-    <t xml:space="preserve">MI...AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG_ConversionFactor</t>
-  </si>
-  <si>
     <t xml:space="preserve">DemandScenarios</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
+    <t xml:space="preserve">PCDD_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDD_2070_78%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2070_65%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDD_2150_78%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2150_65%AG CF</t>
   </si>
 </sst>
 </file>
@@ -431,34 +431,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>492128.97498806</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
+      <c r="E2" t="n">
         <v>44</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>86</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2536404</v>
-      </c>
-      <c r="H2" t="n">
-        <v>492128.97498806</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -466,34 +466,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>557841.74555641</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>117</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>9142</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>2536404</v>
-      </c>
-      <c r="H3" t="n">
-        <v>557841.74555641</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -501,34 +501,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>383890.368048413</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
+      <c r="E4" t="n">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
-        <v>80</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>86</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>5109197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>383890.368048413</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2070</v>
-      </c>
-      <c r="J4" t="n">
-        <v>63</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -536,34 +536,34 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>711807.63214346</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>117</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>16237</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>5109197</v>
-      </c>
-      <c r="H5" t="n">
-        <v>711807.63214346</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2070</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -571,34 +571,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>361630.483074103</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="E6" t="n">
         <v>44</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
-        <v>80</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>6965058</v>
-      </c>
-      <c r="H6" t="n">
-        <v>361630.483074103</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2150</v>
-      </c>
-      <c r="J6" t="n">
-        <v>63</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -606,34 +606,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>846445.840554488</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>117</v>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
-        <v>3051.39605677528</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
+        <v>22331</v>
+      </c>
+      <c r="J7" t="n">
         <v>6965058</v>
-      </c>
-      <c r="H7" t="n">
-        <v>846445.840554488</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">DemandScenarios</t>
   </si>
   <si>
-    <t xml:space="preserve">PCDD_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2070_78%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2070_65%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2150_78%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2150_65%AG CF</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -437,7 +437,7 @@
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -472,7 +472,7 @@
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>2070</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>2150</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/DemandSelections.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">DemandScenarios</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
+    <t xml:space="preserve">PCDD_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDD_2070_63%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2070100%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDD_2150_63%AG CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighET_2150100%AG CF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -519,7 +519,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
